--- a/outputs/ML_Results/mode_MNLR_new/All_model_short_table.xlsx
+++ b/outputs/ML_Results/mode_MNLR_new/All_model_short_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\projects\sufficcs_mobility\outputs\ML_Results\mode_MNLR_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{384640C1-2B99-4521-B8E0-D4C870090A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFBFC5B-1E89-4522-A823-B04F4E4136EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_model_short" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>param</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Trip_Purpose_Agg[T.Other]</t>
-  </si>
-  <si>
-    <t>DistCenter_res</t>
   </si>
   <si>
     <t>DistSubcenter_res</t>
@@ -283,16 +280,21 @@
   <si>
     <t>Household Size</t>
   </si>
+  <si>
+    <t>HHSize</t>
+  </si>
+  <si>
+    <t>DistCenter_res_pc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -802,7 +804,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -811,9 +813,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -873,9 +874,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -913,7 +914,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1019,7 +1020,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1161,18 +1162,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D23"/>
+      <selection activeCell="E2" sqref="E2:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1211,22 +1212,22 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-1.0422525525898301</v>
+        <v>-1.10334409355209</v>
       </c>
       <c r="C2">
-        <v>-0.86220617225794105</v>
+        <v>-0.88000034750060596</v>
       </c>
       <c r="D2">
-        <v>-0.81674000707362104</v>
+        <v>-0.81182894584333698</v>
       </c>
       <c r="E2" s="1">
-        <v>3.7811727747228102E-37</v>
+        <v>2.5632482895249201E-40</v>
       </c>
       <c r="F2" s="1">
-        <v>9.2739885591972595E-48</v>
+        <v>3.6292380917733198E-52</v>
       </c>
       <c r="G2" s="1">
-        <v>1.1817887233680001E-93</v>
+        <v>7.2252512130361803E-94</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -1237,22 +1238,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1.53788935027194</v>
+        <v>1.45497799141402</v>
       </c>
       <c r="C3">
-        <v>-8.1703496995157804E-2</v>
+        <v>-0.10111774318665</v>
       </c>
       <c r="D3">
-        <v>-0.239538169626095</v>
+        <v>-0.25938140963030898</v>
       </c>
       <c r="E3" s="1">
-        <v>2.2781891535767199E-81</v>
+        <v>4.8369295521137201E-70</v>
       </c>
       <c r="F3">
-        <v>0.189543828242146</v>
+        <v>0.11571040949333899</v>
       </c>
       <c r="G3" s="1">
-        <v>9.6319748953604499E-9</v>
+        <v>1.1258054003770899E-10</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -1263,22 +1264,22 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-2.9771060565280001</v>
+        <v>-2.95407204630785</v>
       </c>
       <c r="C4">
-        <v>-1.26390770839179</v>
+        <v>-1.27339337500658</v>
       </c>
       <c r="D4">
-        <v>-0.44940952256824501</v>
+        <v>-0.46048343656747698</v>
       </c>
       <c r="E4" s="1">
-        <v>3.4651346797038201E-187</v>
+        <v>1.0119067041084399E-186</v>
       </c>
       <c r="F4" s="1">
-        <v>3.49222220143504E-88</v>
+        <v>1.73026174971418E-96</v>
       </c>
       <c r="G4" s="1">
-        <v>1.1836186428556199E-22</v>
+        <v>3.04412293628628E-26</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -1289,22 +1290,22 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.13970661783333099</v>
+        <v>-0.138785393011887</v>
       </c>
       <c r="C5">
-        <v>0.114689456200742</v>
+        <v>0.11422024383066599</v>
       </c>
       <c r="D5">
-        <v>0.41256608960854202</v>
+        <v>0.41333769027802802</v>
       </c>
       <c r="E5" s="1">
-        <v>2.0253943172794101E-10</v>
+        <v>8.3921282381716294E-12</v>
       </c>
       <c r="F5" s="1">
-        <v>9.3944865474665296E-14</v>
+        <v>2.9451264129359301E-14</v>
       </c>
       <c r="G5" s="1">
-        <v>3.3531182555484303E-216</v>
+        <v>1.7941207734543501E-211</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -1314,23 +1315,23 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>-3.687185422277E-4</v>
+      <c r="B6" s="1">
+        <v>-1.7425881438508299E-5</v>
       </c>
       <c r="C6">
-        <v>-2.7646770270431001E-3</v>
+        <v>-2.5369157443186998E-3</v>
       </c>
       <c r="D6">
-        <v>-5.4866950960674003E-3</v>
+        <v>-5.1154789326463002E-3</v>
       </c>
       <c r="E6">
-        <v>0.68540593090523405</v>
+        <v>0.78894046388915795</v>
       </c>
       <c r="F6">
-        <v>9.9726621240499996E-4</v>
+        <v>2.2059329468362E-3</v>
       </c>
       <c r="G6" s="1">
-        <v>1.1573795102860699E-15</v>
+        <v>6.4036307866782301E-14</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
@@ -1341,13 +1342,13 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-2.5213696225098801</v>
+        <v>-2.51111453455932</v>
       </c>
       <c r="C7">
-        <v>-2.3562794272015402</v>
+        <v>-2.3473809334098998</v>
       </c>
       <c r="D7">
-        <v>-2.8954722418435099</v>
+        <v>-2.88773901791975</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1367,13 +1368,13 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-3.0255341380749999E-4</v>
+        <v>-3.0150403181989998E-4</v>
       </c>
       <c r="C8">
-        <v>-1.6576623822702999E-3</v>
+        <v>-1.6579997066566001E-3</v>
       </c>
       <c r="D8" s="1">
-        <v>1.73253817244836E-5</v>
+        <v>1.84581795599327E-5</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1382,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>9.0086914670116196E-62</v>
+        <v>1.75022837658063E-70</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -1390,25 +1391,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>0.90385023608872805</v>
-      </c>
-      <c r="C9">
-        <v>1.5377632581535401</v>
+        <v>0.133994893697994</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-3.1922369697893701E-5</v>
       </c>
       <c r="D9">
-        <v>1.3879940934036701</v>
+        <v>3.0816163105797802E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>1.6061705871642599E-99</v>
+        <v>2.0387698604962101E-49</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+        <v>0.77877941732669598</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.1832578880975999E-7</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -1416,22 +1417,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.85809536698160904</v>
+        <v>0.90786249333449998</v>
       </c>
       <c r="C10">
-        <v>1.2961858131403701</v>
+        <v>1.53476842997997</v>
       </c>
       <c r="D10">
-        <v>1.72043315384659</v>
+        <v>1.3862488549507599</v>
       </c>
       <c r="E10" s="1">
-        <v>5.9475134233062804E-73</v>
-      </c>
-      <c r="F10" s="1">
-        <v>6.2523193144264206E-306</v>
+        <v>1.27240254871245E-98</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1442,25 +1443,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.26349116790375599</v>
+        <v>0.86196585117641</v>
       </c>
       <c r="C11">
-        <v>0.72213439392976098</v>
+        <v>1.2946210572808901</v>
       </c>
       <c r="D11">
-        <v>0.89606059553824102</v>
+        <v>1.7228916372230301</v>
       </c>
       <c r="E11" s="1">
-        <v>3.8062297909994998E-9</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.13952636757944E-153</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6.5537013413430502E-138</v>
+        <v>4.4093664412016901E-74</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
@@ -1468,25 +1469,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>1.4548429768923199</v>
+        <v>0.26647339569022699</v>
       </c>
       <c r="C12">
-        <v>0.78899219644081797</v>
+        <v>0.71894988294783801</v>
       </c>
       <c r="D12">
-        <v>1.68103032215562</v>
+        <v>0.89591972138322196</v>
       </c>
       <c r="E12" s="1">
-        <v>9.2716271773170802E-267</v>
+        <v>1.8398881008441599E-9</v>
       </c>
       <c r="F12" s="1">
-        <v>5.5364426760221904E-140</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
+        <v>3.9407015533221001E-154</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.7586084009835898E-141</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -1494,25 +1495,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.33175028216531899</v>
+        <v>1.45245018331845</v>
       </c>
       <c r="C13">
-        <v>0.54002689328526199</v>
+        <v>0.78396054686180705</v>
       </c>
       <c r="D13">
-        <v>1.1200516296273799</v>
+        <v>1.67692702367107</v>
       </c>
       <c r="E13" s="1">
-        <v>9.3640719676290205E-5</v>
+        <v>3.3371961103374797E-266</v>
       </c>
       <c r="F13" s="1">
-        <v>2.58813208601888E-27</v>
-      </c>
-      <c r="G13" s="1">
-        <v>4.12710975784467E-105</v>
+        <v>1.4617079101152301E-140</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
@@ -1520,25 +1521,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-1.3424985284743901E-2</v>
+        <v>0.33328167626537097</v>
       </c>
       <c r="C14">
-        <v>-9.1015690176428996E-3</v>
+        <v>0.53503002456967397</v>
       </c>
       <c r="D14">
-        <v>-1.23479808136232E-2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>9.35271539092634E-5</v>
+        <v>1.1152160986087201</v>
+      </c>
+      <c r="E14">
+        <v>1.331312944349E-4</v>
       </c>
       <c r="F14" s="1">
-        <v>4.2303094101630801E-6</v>
+        <v>4.8802846010012797E-26</v>
       </c>
       <c r="G14" s="1">
-        <v>3.2314290491802001E-12</v>
+        <v>1.2336970408133099E-103</v>
       </c>
       <c r="H14" t="s">
         <v>9</v>
@@ -1546,25 +1547,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B15">
-        <v>-2.0637194799630401E-2</v>
+        <v>-3.6497436187113001E-3</v>
       </c>
       <c r="C15">
-        <v>-1.7963771315579202E-2</v>
+        <v>-2.0391448911834002E-3</v>
       </c>
       <c r="D15">
-        <v>3.9320702108903999E-3</v>
-      </c>
-      <c r="E15">
-        <v>1.27427859235884E-2</v>
+        <v>-2.9928202534244999E-3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8.6934783481296998E-37</v>
       </c>
       <c r="F15" s="1">
-        <v>3.3329244876658402E-6</v>
-      </c>
-      <c r="G15">
-        <v>0.26456785283747197</v>
+        <v>4.0056714605119101E-35</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.1759882873921402E-81</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
@@ -1572,25 +1573,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>3.9198897308024899E-3</v>
+        <v>-1.09089873439898E-2</v>
       </c>
       <c r="C16">
-        <v>4.1544623435290796E-3</v>
+        <v>-1.2163196051403201E-2</v>
       </c>
       <c r="D16">
-        <v>3.4553538124931201E-3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1.7020960457983299E-51</v>
-      </c>
-      <c r="F16" s="1">
-        <v>4.8737941236552501E-178</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1.65198733005811E-158</v>
+        <v>1.26599052444473E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.12600491401665401</v>
+      </c>
+      <c r="F16">
+        <v>2.1837820703846001E-3</v>
+      </c>
+      <c r="G16">
+        <v>2.24922196407E-4</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
@@ -1598,25 +1599,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17">
-        <v>-7.6926355174225796E-4</v>
+        <v>4.1993768502767998E-3</v>
       </c>
       <c r="C17">
-        <v>4.4477232945965197E-3</v>
+        <v>4.5581653538343996E-3</v>
       </c>
       <c r="D17">
-        <v>6.7745342839806997E-3</v>
-      </c>
-      <c r="E17">
-        <v>0.63983132308132395</v>
+        <v>3.9802334743476997E-3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7.6708967609966304E-57</v>
       </c>
       <c r="F17" s="1">
-        <v>4.9070714701210797E-8</v>
+        <v>1.07424181789846E-218</v>
       </c>
       <c r="G17" s="1">
-        <v>4.8668337169483804E-28</v>
+        <v>5.6169063716855501E-216</v>
       </c>
       <c r="H17" t="s">
         <v>9</v>
@@ -1624,25 +1625,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>4.4406364672031004E-3</v>
+        <v>-2.3102525217421001E-3</v>
       </c>
       <c r="C18">
-        <v>7.0305632659810003E-3</v>
+        <v>5.2053396148605997E-3</v>
       </c>
       <c r="D18">
-        <v>5.1639985969593998E-3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>9.0571970420883499E-7</v>
+        <v>8.7312767310920997E-3</v>
+      </c>
+      <c r="E18">
+        <v>0.47477433606723901</v>
       </c>
       <c r="F18" s="1">
-        <v>6.1689472604879898E-53</v>
+        <v>5.0827142452321603E-7</v>
       </c>
       <c r="G18" s="1">
-        <v>1.84528327224462E-36</v>
+        <v>1.3141499034973899E-27</v>
       </c>
       <c r="H18" t="s">
         <v>9</v>
@@ -1650,25 +1651,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>3.4137693997459998E-3</v>
+        <v>3.0250436686451998E-3</v>
       </c>
       <c r="C19">
-        <v>3.8288631265283998E-3</v>
+        <v>6.7366010323042002E-3</v>
       </c>
       <c r="D19">
-        <v>4.9447064901877004E-3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>3.6571858031802501E-6</v>
+        <v>4.8131107176941001E-3</v>
+      </c>
+      <c r="E19">
+        <v>7.7944786543149996E-4</v>
       </c>
       <c r="F19" s="1">
-        <v>3.2656188301108603E-11</v>
+        <v>2.0822760051654099E-47</v>
       </c>
       <c r="G19" s="1">
-        <v>1.9842135670847E-28</v>
+        <v>1.3246611851677299E-32</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
@@ -1676,25 +1677,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>1.34367241568979E-2</v>
+        <v>3.7906635321980999E-3</v>
       </c>
       <c r="C20">
-        <v>3.0135474866317801E-3</v>
+        <v>4.1846985424419999E-3</v>
       </c>
       <c r="D20">
-        <v>4.5556796592192399E-3</v>
+        <v>5.5085847422036999E-3</v>
       </c>
       <c r="E20" s="1">
-        <v>8.2865247772970404E-41</v>
-      </c>
-      <c r="F20">
-        <v>1.012480045239E-4</v>
+        <v>6.82251581365299E-8</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.48402030775318E-13</v>
       </c>
       <c r="G20" s="1">
-        <v>4.5343295473380401E-10</v>
+        <v>4.9314014705083498E-36</v>
       </c>
       <c r="H20" t="s">
         <v>9</v>
@@ -1702,25 +1703,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="1">
-        <v>4.24398304983772E-5</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4.4065239015758099E-5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>8.7343183213672593E-5</v>
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>1.19733426226507E-2</v>
+      </c>
+      <c r="C21">
+        <v>2.3340620703103001E-3</v>
+      </c>
+      <c r="D21">
+        <v>4.0890044570502E-3</v>
       </c>
       <c r="E21" s="1">
-        <v>8.3965733644513904E-6</v>
-      </c>
-      <c r="F21" s="1">
-        <v>5.3828074950448102E-17</v>
+        <v>2.87338550624187E-30</v>
+      </c>
+      <c r="F21">
+        <v>1.9752631557538999E-3</v>
       </c>
       <c r="G21" s="1">
-        <v>2.6447115404587601E-76</v>
+        <v>3.5176335590949802E-8</v>
       </c>
       <c r="H21" t="s">
         <v>9</v>
@@ -1728,25 +1729,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-4.2644889791356904E-3</v>
+        <v>-3.5310794863290001E-4</v>
       </c>
       <c r="C22">
-        <v>-4.0708189048257702E-3</v>
+        <v>3.2521947124560001E-4</v>
       </c>
       <c r="D22">
-        <v>-2.8802957595347599E-3</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1.9345137847770699E-7</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2.95141195881243E-14</v>
+        <v>2.3925653185094E-3</v>
+      </c>
+      <c r="E22">
+        <v>0.61125894242407197</v>
+      </c>
+      <c r="F22">
+        <v>0.35378567358596702</v>
       </c>
       <c r="G22" s="1">
-        <v>2.3085175959228998E-9</v>
+        <v>2.2338435626079199E-14</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
@@ -1754,27 +1755,53 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-2.31227873983645E-3</v>
+        <v>-4.3698395937643002E-3</v>
       </c>
       <c r="C23">
-        <v>7.7637166895487596E-3</v>
+        <v>-4.4799236169989001E-3</v>
       </c>
       <c r="D23">
-        <v>6.9831848292561897E-3</v>
-      </c>
-      <c r="E23">
-        <v>4.7314679889855001E-2</v>
+        <v>-3.2355340839009001E-3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.43499658720416E-8</v>
       </c>
       <c r="F23" s="1">
-        <v>3.2229259830647101E-22</v>
+        <v>7.3934766389001897E-16</v>
       </c>
       <c r="G23" s="1">
-        <v>1.72273093674069E-21</v>
+        <v>9.1388879694720794E-11</v>
       </c>
       <c r="H23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>-3.5918243556186001E-3</v>
+      </c>
+      <c r="C24">
+        <v>7.383551128066E-3</v>
+      </c>
+      <c r="D24">
+        <v>6.4357220018599996E-3</v>
+      </c>
+      <c r="E24">
+        <v>1.8332686523502E-3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.16014880523979E-21</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.85965271766126E-19</v>
+      </c>
+      <c r="H24" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1784,11 +1811,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:I25"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1798,10 +1825,10 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1828,7 +1855,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -1841,22 +1868,22 @@
         <v>8</v>
       </c>
       <c r="C4" s="7">
-        <v>-1.0422525525898301</v>
+        <v>-1.10334409355209</v>
       </c>
       <c r="D4" s="7">
-        <v>-0.86220617225794105</v>
+        <v>-0.88000034750060596</v>
       </c>
       <c r="E4" s="7">
-        <v>-0.81674000707362104</v>
+        <v>-0.81182894584333698</v>
       </c>
       <c r="G4" s="4">
-        <v>3.7811727747228102E-37</v>
+        <v>2.5632482895249201E-40</v>
       </c>
       <c r="H4" s="4">
-        <v>9.2739885591972595E-48</v>
+        <v>3.6292380917733198E-52</v>
       </c>
       <c r="I4" s="4">
-        <v>1.1817887233680001E-93</v>
+        <v>7.2252512130361803E-94</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
@@ -1864,22 +1891,22 @@
         <v>10</v>
       </c>
       <c r="C5" s="7">
-        <v>1.53788935027194</v>
+        <v>1.45497799141402</v>
       </c>
       <c r="D5" s="7">
-        <v>-8.1703496995157804E-2</v>
+        <v>-0.10111774318665</v>
       </c>
       <c r="E5" s="7">
-        <v>-0.239538169626095</v>
+        <v>-0.25938140963030898</v>
       </c>
       <c r="G5" s="4">
-        <v>2.2781891535767199E-81</v>
+        <v>4.8369295521137201E-70</v>
       </c>
       <c r="H5" s="4">
-        <v>0.189543828242146</v>
+        <v>0.11571040949333899</v>
       </c>
       <c r="I5" s="4">
-        <v>9.6319748953604499E-9</v>
+        <v>1.1258054003770899E-10</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -1887,22 +1914,22 @@
         <v>11</v>
       </c>
       <c r="C6" s="7">
-        <v>-2.9771060565280001</v>
+        <v>-2.95407204630785</v>
       </c>
       <c r="D6" s="7">
-        <v>-1.26390770839179</v>
+        <v>-1.27339337500658</v>
       </c>
       <c r="E6" s="7">
-        <v>-0.44940952256824501</v>
+        <v>-0.46048343656747698</v>
       </c>
       <c r="G6" s="4">
-        <v>3.4651346797038201E-187</v>
+        <v>1.0119067041084399E-186</v>
       </c>
       <c r="H6" s="4">
-        <v>3.49222220143504E-88</v>
+        <v>1.73026174971418E-96</v>
       </c>
       <c r="I6" s="4">
-        <v>1.1836186428556199E-22</v>
+        <v>3.04412293628628E-26</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -1910,22 +1937,22 @@
         <v>12</v>
       </c>
       <c r="C7" s="7">
-        <v>-0.13970661783333099</v>
+        <v>-0.138785393011887</v>
       </c>
       <c r="D7" s="7">
-        <v>0.114689456200742</v>
+        <v>0.11422024383066599</v>
       </c>
       <c r="E7" s="7">
-        <v>0.41256608960854202</v>
+        <v>0.41333769027802802</v>
       </c>
       <c r="G7" s="4">
-        <v>2.0253943172794101E-10</v>
+        <v>8.3921282381716294E-12</v>
       </c>
       <c r="H7" s="4">
-        <v>9.3944865474665296E-14</v>
+        <v>2.9451264129359301E-14</v>
       </c>
       <c r="I7" s="4">
-        <v>3.3531182555484303E-216</v>
+        <v>1.7941207734543501E-211</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -1933,36 +1960,36 @@
         <v>13</v>
       </c>
       <c r="C8" s="7">
-        <v>-3.687185422277E-4</v>
+        <v>-1.7425881438508299E-5</v>
       </c>
       <c r="D8" s="4">
-        <v>-2.7646770270431001E-3</v>
+        <v>-2.5369157443186998E-3</v>
       </c>
       <c r="E8" s="7">
-        <v>-5.4866950960674003E-3</v>
+        <v>-5.1154789326463002E-3</v>
       </c>
       <c r="G8" s="4">
-        <v>0.68540593090523405</v>
-      </c>
-      <c r="H8" s="8">
-        <v>9.9726621240499996E-4</v>
+        <v>0.78894046388915795</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2.2059329468362E-3</v>
       </c>
       <c r="I8" s="4">
-        <v>1.1573795102860699E-15</v>
+        <v>6.4036307866782301E-14</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="7">
-        <v>-2.5213696225098801</v>
+        <v>-2.51111453455932</v>
       </c>
       <c r="D9" s="7">
-        <v>-2.3562794272015402</v>
+        <v>-2.3473809334098998</v>
       </c>
       <c r="E9" s="7">
-        <v>-2.8954722418435099</v>
+        <v>-2.88773901791975</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -1976,16 +2003,16 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5">
-        <v>-3.0255341380749999E-4</v>
+        <v>-3.0150403181989998E-4</v>
       </c>
       <c r="D10" s="5">
-        <v>-1.6576623822702999E-3</v>
+        <v>-1.6579997066566001E-3</v>
       </c>
       <c r="E10" s="6">
-        <v>1.73253817244836E-5</v>
+        <v>1.84581795599327E-5</v>
       </c>
       <c r="G10" s="4">
         <v>0</v>
@@ -1994,47 +2021,47 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>9.0086914670116196E-62</v>
+        <v>1.75022837658063E-70</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7">
-        <v>0.13056494576604399</v>
+        <v>0.133994893697994</v>
       </c>
       <c r="D11" s="7">
-        <v>-1.7863394565736999E-3</v>
+        <v>-3.1922369697893701E-5</v>
       </c>
       <c r="E11" s="7">
-        <v>2.7495285764047701E-2</v>
+        <v>3.0816163105797802E-2</v>
       </c>
       <c r="G11" s="4">
-        <v>1.1248651420690801E-45</v>
+        <v>2.0387698604962101E-49</v>
       </c>
       <c r="H11" s="4">
-        <v>0.76695314547108795</v>
+        <v>0.77877941732669598</v>
       </c>
       <c r="I11" s="4">
-        <v>3.7349610997465501E-6</v>
+        <v>2.1832578880975999E-7</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4">
-        <v>0.90385023608872805</v>
+        <v>0.90786249333449998</v>
       </c>
       <c r="D12" s="4">
-        <v>1.5377632581535401</v>
+        <v>1.53476842997997</v>
       </c>
       <c r="E12" s="4">
-        <v>1.3879940934036701</v>
+        <v>1.3862488549507599</v>
       </c>
       <c r="G12" s="4">
-        <v>1.6061705871642599E-99</v>
+        <v>1.27240254871245E-98</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
@@ -2045,22 +2072,22 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4">
-        <v>0.85809536698160904</v>
+        <v>0.86196585117641</v>
       </c>
       <c r="D13" s="4">
-        <v>1.2961858131403701</v>
+        <v>1.2946210572808901</v>
       </c>
       <c r="E13" s="4">
-        <v>1.72043315384659</v>
+        <v>1.7228916372230301</v>
       </c>
       <c r="G13" s="4">
-        <v>5.9475134233062804E-73</v>
+        <v>4.4093664412016901E-74</v>
       </c>
       <c r="H13" s="4">
-        <v>6.2523193144264206E-306</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
@@ -2068,45 +2095,45 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4">
-        <v>0.26349116790375599</v>
+        <v>0.26647339569022699</v>
       </c>
       <c r="D14" s="4">
-        <v>0.72213439392976098</v>
+        <v>0.71894988294783801</v>
       </c>
       <c r="E14" s="4">
-        <v>0.89606059553824102</v>
+        <v>0.89591972138322196</v>
       </c>
       <c r="G14" s="4">
-        <v>3.8062297909994998E-9</v>
+        <v>1.8398881008441599E-9</v>
       </c>
       <c r="H14" s="4">
-        <v>1.13952636757944E-153</v>
+        <v>3.9407015533221001E-154</v>
       </c>
       <c r="I14" s="4">
-        <v>6.5537013413430502E-138</v>
+        <v>3.7586084009835898E-141</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4">
-        <v>1.4548429768923199</v>
+        <v>1.45245018331845</v>
       </c>
       <c r="D15" s="4">
-        <v>0.78899219644081797</v>
+        <v>0.78396054686180705</v>
       </c>
       <c r="E15" s="4">
-        <v>1.68103032215562</v>
+        <v>1.67692702367107</v>
       </c>
       <c r="G15" s="4">
-        <v>9.2716271773170802E-267</v>
+        <v>3.3371961103374797E-266</v>
       </c>
       <c r="H15" s="4">
-        <v>5.5364426760221904E-140</v>
+        <v>1.4617079101152301E-140</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
@@ -2114,255 +2141,255 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4">
-        <v>0.33175028216531899</v>
+        <v>0.33328167626537097</v>
       </c>
       <c r="D16" s="4">
-        <v>0.54002689328526199</v>
+        <v>0.53503002456967397</v>
       </c>
       <c r="E16" s="4">
-        <v>1.1200516296273799</v>
+        <v>1.1152160986087201</v>
       </c>
       <c r="G16" s="4">
-        <v>9.3640719676290205E-5</v>
+        <v>1.331312944349E-4</v>
       </c>
       <c r="H16" s="4">
-        <v>2.58813208601888E-27</v>
+        <v>4.8802846010012797E-26</v>
       </c>
       <c r="I16" s="4">
-        <v>4.12710975784467E-105</v>
+        <v>1.2336970408133099E-103</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="9">
-        <v>-1.3424985284743901E-2</v>
-      </c>
-      <c r="D17" s="9">
-        <v>-9.1015690176428996E-3</v>
-      </c>
-      <c r="E17" s="9">
-        <v>-1.23479808136232E-2</v>
+        <v>40</v>
+      </c>
+      <c r="C17" s="8">
+        <v>-3.6497436187113001E-3</v>
+      </c>
+      <c r="D17" s="8">
+        <v>-2.0391448911834002E-3</v>
+      </c>
+      <c r="E17" s="8">
+        <v>-2.9928202534244999E-3</v>
       </c>
       <c r="G17" s="4">
-        <v>9.35271539092634E-5</v>
+        <v>8.6934783481296998E-37</v>
       </c>
       <c r="H17" s="4">
-        <v>4.2303094101630801E-6</v>
+        <v>4.0056714605119101E-35</v>
       </c>
       <c r="I17" s="4">
-        <v>3.2314290491802001E-12</v>
+        <v>2.1759882873921402E-81</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="9">
-        <v>-2.0637194799630401E-2</v>
-      </c>
-      <c r="D18" s="9">
-        <v>-1.7963771315579202E-2</v>
-      </c>
-      <c r="E18" s="9">
-        <v>3.9320702108903999E-3</v>
+        <v>41</v>
+      </c>
+      <c r="C18" s="8">
+        <v>-1.09089873439898E-2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>-1.2163196051403201E-2</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1.26599052444473E-2</v>
       </c>
       <c r="G18" s="4">
-        <v>1.27427859235884E-2</v>
+        <v>0.12600491401665401</v>
       </c>
       <c r="H18" s="4">
-        <v>3.3329244876658402E-6</v>
+        <v>2.1837820703846001E-3</v>
       </c>
       <c r="I18" s="4">
-        <v>0.26456785283747197</v>
+        <v>2.24922196407E-4</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="9">
-        <v>3.9198897308024899E-3</v>
-      </c>
-      <c r="D19" s="9">
-        <v>4.1544623435290796E-3</v>
-      </c>
-      <c r="E19" s="9">
-        <v>3.4553538124931201E-3</v>
+        <v>42</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4.1993768502767998E-3</v>
+      </c>
+      <c r="D19" s="8">
+        <v>4.5581653538343996E-3</v>
+      </c>
+      <c r="E19" s="8">
+        <v>3.9802334743476997E-3</v>
       </c>
       <c r="G19" s="4">
-        <v>1.7020960457983299E-51</v>
+        <v>7.6708967609966304E-57</v>
       </c>
       <c r="H19" s="4">
-        <v>4.8737941236552501E-178</v>
+        <v>1.07424181789846E-218</v>
       </c>
       <c r="I19" s="4">
-        <v>1.65198733005811E-158</v>
+        <v>5.6169063716855501E-216</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="9">
-        <v>-7.6926355174225796E-4</v>
-      </c>
-      <c r="D20" s="9">
-        <v>4.4477232945965197E-3</v>
-      </c>
-      <c r="E20" s="9">
-        <v>6.7745342839806997E-3</v>
+        <v>43</v>
+      </c>
+      <c r="C20" s="8">
+        <v>-2.3102525217421001E-3</v>
+      </c>
+      <c r="D20" s="8">
+        <v>5.2053396148605997E-3</v>
+      </c>
+      <c r="E20" s="8">
+        <v>8.7312767310920997E-3</v>
       </c>
       <c r="G20" s="4">
-        <v>0.63983132308132395</v>
+        <v>0.47477433606723901</v>
       </c>
       <c r="H20" s="4">
-        <v>4.9070714701210797E-8</v>
+        <v>5.0827142452321603E-7</v>
       </c>
       <c r="I20" s="4">
-        <v>4.8668337169483804E-28</v>
+        <v>1.3141499034973899E-27</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="9">
-        <v>4.4406364672031004E-3</v>
-      </c>
-      <c r="D21" s="9">
-        <v>7.0305632659810003E-3</v>
-      </c>
-      <c r="E21" s="9">
-        <v>5.1639985969593998E-3</v>
+        <v>44</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3.0250436686451998E-3</v>
+      </c>
+      <c r="D21" s="8">
+        <v>6.7366010323042002E-3</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4.8131107176941001E-3</v>
       </c>
       <c r="G21" s="4">
-        <v>9.0571970420883499E-7</v>
+        <v>7.7944786543149996E-4</v>
       </c>
       <c r="H21" s="4">
-        <v>6.1689472604879898E-53</v>
+        <v>2.0822760051654099E-47</v>
       </c>
       <c r="I21" s="4">
-        <v>1.84528327224462E-36</v>
+        <v>1.3246611851677299E-32</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="9">
-        <v>3.4137693997459998E-3</v>
-      </c>
-      <c r="D22" s="9">
-        <v>3.8288631265283998E-3</v>
-      </c>
-      <c r="E22" s="9">
-        <v>4.9447064901877004E-3</v>
+        <v>45</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3.7906635321980999E-3</v>
+      </c>
+      <c r="D22" s="8">
+        <v>4.1846985424419999E-3</v>
+      </c>
+      <c r="E22" s="8">
+        <v>5.5085847422036999E-3</v>
       </c>
       <c r="G22" s="4">
-        <v>3.6571858031802501E-6</v>
+        <v>6.82251581365299E-8</v>
       </c>
       <c r="H22" s="4">
-        <v>3.2656188301108603E-11</v>
+        <v>1.48402030775318E-13</v>
       </c>
       <c r="I22" s="4">
-        <v>1.9842135670847E-28</v>
+        <v>4.9314014705083498E-36</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="9">
-        <v>1.34367241568979E-2</v>
-      </c>
-      <c r="D23" s="9">
-        <v>3.0135474866317801E-3</v>
-      </c>
-      <c r="E23" s="9">
-        <v>4.5556796592192399E-3</v>
+        <v>46</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1.19733426226507E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2.3340620703103001E-3</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4.0890044570502E-3</v>
       </c>
       <c r="G23" s="4">
-        <v>8.2865247772970404E-41</v>
+        <v>2.87338550624187E-30</v>
       </c>
       <c r="H23" s="4">
-        <v>1.012480045239E-4</v>
+        <v>1.9752631557538999E-3</v>
       </c>
       <c r="I23" s="4">
-        <v>4.5343295473380401E-10</v>
+        <v>3.5176335590949802E-8</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="10">
-        <v>4.24398304983772E-5</v>
-      </c>
-      <c r="D24" s="10">
-        <v>4.4065239015758099E-5</v>
-      </c>
-      <c r="E24" s="10">
-        <v>8.7343183213672593E-5</v>
+        <v>47</v>
+      </c>
+      <c r="C24" s="9">
+        <v>-3.5310794863290001E-4</v>
+      </c>
+      <c r="D24" s="9">
+        <v>3.2521947124560001E-4</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2.3925653185094E-3</v>
       </c>
       <c r="G24" s="4">
-        <v>8.3965733644513904E-6</v>
+        <v>0.61125894242407197</v>
       </c>
       <c r="H24" s="4">
-        <v>5.3828074950448102E-17</v>
+        <v>0.35378567358596702</v>
       </c>
       <c r="I24" s="4">
-        <v>2.6447115404587601E-76</v>
+        <v>2.2338435626079199E-14</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="9">
-        <v>-4.2644889791356904E-3</v>
-      </c>
-      <c r="D25" s="9">
-        <v>-4.0708189048257702E-3</v>
-      </c>
-      <c r="E25" s="9">
-        <v>-2.8802957595347599E-3</v>
+        <v>48</v>
+      </c>
+      <c r="C25" s="8">
+        <v>-4.3698395937643002E-3</v>
+      </c>
+      <c r="D25" s="8">
+        <v>-4.4799236169989001E-3</v>
+      </c>
+      <c r="E25" s="8">
+        <v>-3.2355340839009001E-3</v>
       </c>
       <c r="G25" s="4">
-        <v>1.9345137847770699E-7</v>
+        <v>3.43499658720416E-8</v>
       </c>
       <c r="H25" s="4">
-        <v>2.95141195881243E-14</v>
+        <v>7.3934766389001897E-16</v>
       </c>
       <c r="I25" s="4">
-        <v>2.3085175959228998E-9</v>
+        <v>9.1388879694720794E-11</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="9">
-        <v>-2.31227873983645E-3</v>
-      </c>
-      <c r="D26" s="9">
-        <v>7.7637166895487596E-3</v>
-      </c>
-      <c r="E26" s="9">
-        <v>6.9831848292561897E-3</v>
+        <v>49</v>
+      </c>
+      <c r="C26" s="8">
+        <v>-3.5918243556186001E-3</v>
+      </c>
+      <c r="D26" s="8">
+        <v>7.383551128066E-3</v>
+      </c>
+      <c r="E26" s="8">
+        <v>6.4357220018599996E-3</v>
       </c>
       <c r="G26" s="4">
-        <v>4.7314679889855001E-2</v>
+        <v>1.8332686523502E-3</v>
       </c>
       <c r="H26" s="4">
-        <v>3.2229259830647101E-22</v>
+        <v>1.16014880523979E-21</v>
       </c>
       <c r="I26" s="4">
-        <v>1.72273093674069E-21</v>
+        <v>1.85965271766126E-19</v>
       </c>
     </row>
   </sheetData>
